--- a/Data/ROY Data/roy_97_98.xlsx
+++ b/Data/ROY Data/roy_97_98.xlsx
@@ -91,7 +91,7 @@
     <t>NJN</t>
   </si>
   <si>
-    <t>1996-97</t>
+    <t>1997-98</t>
   </si>
 </sst>
 </file>
